--- a/DataRe-Analysis/SummaryAnalysis_Dataset_v11.xlsx
+++ b/DataRe-Analysis/SummaryAnalysis_Dataset_v11.xlsx
@@ -58225,7 +58225,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
